--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
@@ -1010,25 +1010,12 @@
     <t>1.2.1.6</t>
   </si>
   <si>
-    <t>Can type max 32 characters, not less than 6 characters, characters must be hide</t>
-  </si>
-  <si>
     <t>UJD_VN_TestViewpoint_Edit profile_v1.0_EN</t>
   </si>
   <si>
     <t>Edit profile screen</t>
   </si>
   <si>
-    <t>- Items:
-+ "Họ và tên" textbox 
-+ "Mật khẩu cũ" textbox
-+ "Mật khẩu mới" textbox
-+ "Nhập lại mật khẩu mới" textbox
-+ "Email" textbox
-+ "Mã xác nhận" textbox
-+ "Thay đổi" button</t>
-  </si>
-  <si>
     <t>Edit information</t>
   </si>
   <si>
@@ -1066,15 +1053,6 @@
   </si>
   <si>
     <t>Input email in "Email" textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input the verification code </t>
-  </si>
-  <si>
-    <t>Can type max 50 characters</t>
-  </si>
-  <si>
-    <t>Can type max 100 characters</t>
   </si>
   <si>
     <t>Input capcha in "Mã xác nhận" textbox</t>
@@ -1103,6 +1081,24 @@
     <t>- Web title: Thay đổi thông tin
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t>- Display full item (Contribute vocabulary, grammar, kanji)
+- Title is centered
+- All items is left-aligned
+- Text's color is black and title's color is blue</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 50 characters</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 32 characters and characters must be hide</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
   </si>
 </sst>
 </file>
@@ -6367,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="107"/>
       <c r="E6" s="107"/>
@@ -6527,8 +6523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6649,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6721,10 +6717,10 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="126.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6749,7 +6745,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6779,7 +6775,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6798,7 +6794,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6810,13 +6806,13 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
@@ -6826,7 +6822,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6838,13 +6834,13 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
@@ -6854,7 +6850,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6866,13 +6862,13 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
@@ -6882,7 +6878,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6894,13 +6890,13 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
@@ -6910,7 +6906,7 @@
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6922,13 +6918,13 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
@@ -6938,7 +6934,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6950,10 +6946,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -6965,7 +6961,7 @@
       <c r="D19" s="60"/>
       <c r="E19" s="61"/>
       <c r="F19" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -6984,7 +6980,7 @@
       <c r="E20" s="63"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6996,10 +6992,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="27">
@@ -7016,10 +7012,10 @@
       <c r="I21" s="57"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L21" s="56" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
@@ -8114,7 +8110,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
@@ -275,10 +275,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$65</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$28</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$49</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$64</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$27</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$48</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$73</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +313,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="165">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1007,9 +1007,6 @@
     <t>1.2.1.5</t>
   </si>
   <si>
-    <t>1.2.1.6</t>
-  </si>
-  <si>
     <t>UJD_VN_TestViewpoint_Edit profile_v1.0_EN</t>
   </si>
   <si>
@@ -1034,9 +1031,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Capcha</t>
-  </si>
-  <si>
     <t>Input full name  in "Họ và tên" textbox</t>
   </si>
   <si>
@@ -1053,9 +1047,6 @@
   </si>
   <si>
     <t>Input email in "Email" textbox</t>
-  </si>
-  <si>
-    <t>Input capcha in "Mã xác nhận" textbox</t>
   </si>
   <si>
     <t>Edit</t>
@@ -1083,22 +1074,16 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t>- Display full item (Contribute vocabulary, grammar, kanji)
-- Title is centered
+    <t xml:space="preserve">Word that user input is displayed </t>
+  </si>
+  <si>
+    <t>- Display full item
+- Title is centered, color is blue
 - All items is left-aligned
 - Text's color is black and title's color is blue</t>
   </si>
   <si>
-    <t>Word that user input is displayed and user cannot input more than 50 characters</t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 32 characters and characters must be hide</t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word that user input is displayed </t>
+    <t>Word that user input is displayed and  characters must be hide</t>
   </si>
 </sst>
 </file>
@@ -3098,6 +3083,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3118,24 +3121,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3532,22 +3517,22 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3567,16 +3552,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1800225" y="361950"/>
-          <a:ext cx="4752975" cy="4038600"/>
+          <a:off x="2333625" y="400050"/>
+          <a:ext cx="3955935" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -3584,16 +3566,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6306,14 +6278,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6328,12 +6300,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6345,12 +6317,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6359,15 +6331,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6376,11 +6348,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6403,10 +6375,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6424,10 +6396,10 @@
       <c r="B10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6441,8 +6413,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6450,8 +6422,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6459,8 +6431,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6468,8 +6440,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6477,8 +6449,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6486,8 +6458,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6495,6 +6467,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6502,12 +6480,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6521,10 +6493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6645,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6717,7 +6689,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6745,7 +6717,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6775,7 +6747,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6794,7 +6766,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6806,10 +6778,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
@@ -6822,7 +6794,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6834,10 +6806,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6850,7 +6822,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6862,10 +6834,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
@@ -6878,7 +6850,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6890,10 +6862,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
@@ -6906,7 +6878,7 @@
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6918,105 +6890,91 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="E18" s="61"/>
+      <c r="F18" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="55"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+      <c r="C19" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="27">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>162</v>
-      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
       <c r="A22" s="65"/>
@@ -7030,9 +6988,9 @@
       <c r="I22" s="68"/>
       <c r="J22" s="69"/>
       <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1">
+      <c r="L22" s="73"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -7046,9 +7004,9 @@
       <c r="K23" s="67"/>
       <c r="L23" s="73"/>
     </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
+    <row r="24" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
@@ -7058,11 +7016,11 @@
       <c r="I24" s="68"/>
       <c r="J24" s="69"/>
       <c r="K24" s="67"/>
-      <c r="L24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
@@ -7072,7 +7030,7 @@
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
       <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="65"/>
@@ -7090,35 +7048,35 @@
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1">
       <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="73"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="65"/>
       <c r="B28" s="74"/>
       <c r="C28" s="66"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
       <c r="E29" s="67"/>
@@ -7128,9 +7086,9 @@
       <c r="I29" s="68"/>
       <c r="J29" s="69"/>
       <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1">
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="65"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -7144,14 +7102,14 @@
       <c r="K30" s="67"/>
       <c r="L30" s="73"/>
     </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="31" spans="1:12" s="44" customFormat="1">
       <c r="A31" s="65"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
       <c r="E31" s="67"/>
       <c r="F31" s="67"/>
-      <c r="G31" s="72"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="66"/>
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
@@ -7165,12 +7123,12 @@
       <c r="D32" s="66"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="66"/>
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
       <c r="K32" s="67"/>
-      <c r="L32" s="73"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="1:12" s="44" customFormat="1">
       <c r="A33" s="65"/>
@@ -7184,7 +7142,7 @@
       <c r="I33" s="68"/>
       <c r="J33" s="69"/>
       <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="65"/>
@@ -7193,12 +7151,12 @@
       <c r="D34" s="66"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
-      <c r="G34" s="72"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="66"/>
       <c r="I34" s="68"/>
       <c r="J34" s="69"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="75"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
       <c r="A35" s="65"/>
@@ -7207,7 +7165,7 @@
       <c r="D35" s="66"/>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="66"/>
       <c r="I35" s="68"/>
       <c r="J35" s="69"/>
@@ -7228,7 +7186,7 @@
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
     </row>
-    <row r="37" spans="1:12" s="44" customFormat="1">
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="65"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
@@ -7242,7 +7200,7 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
     </row>
-    <row r="38" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="38" spans="1:12" s="44" customFormat="1">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -7287,8 +7245,8 @@
     <row r="41" spans="1:12" s="44" customFormat="1">
       <c r="A41" s="65"/>
       <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="72"/>
@@ -7301,8 +7259,8 @@
     <row r="42" spans="1:12" s="44" customFormat="1">
       <c r="A42" s="65"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="72"/>
@@ -7341,8 +7299,8 @@
       <c r="L44" s="73"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
       <c r="E45" s="67"/>
@@ -7355,8 +7313,8 @@
       <c r="L45" s="73"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
       <c r="E46" s="67"/>
@@ -7384,31 +7342,31 @@
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
       <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="66"/>
       <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="1:12" s="44" customFormat="1">
       <c r="A49" s="65"/>
       <c r="B49" s="74"/>
       <c r="C49" s="66"/>
       <c r="D49" s="66"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
     </row>
     <row r="50" spans="1:12" s="44" customFormat="1">
       <c r="A50" s="65"/>
@@ -7422,7 +7380,7 @@
       <c r="I50" s="68"/>
       <c r="J50" s="69"/>
       <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
+      <c r="L50" s="73"/>
     </row>
     <row r="51" spans="1:12" s="44" customFormat="1">
       <c r="A51" s="65"/>
@@ -7445,7 +7403,7 @@
       <c r="D52" s="66"/>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
-      <c r="G52" s="72"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="66"/>
       <c r="I52" s="68"/>
       <c r="J52" s="69"/>
@@ -7455,7 +7413,7 @@
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="65"/>
       <c r="B53" s="74"/>
-      <c r="C53" s="66"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="66"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
@@ -7497,7 +7455,7 @@
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="65"/>
       <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="66"/>
       <c r="E56" s="67"/>
       <c r="F56" s="67"/>
@@ -7510,7 +7468,7 @@
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
       <c r="E57" s="67"/>
@@ -7524,7 +7482,7 @@
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="65"/>
-      <c r="B58" s="66"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="E58" s="67"/>
@@ -7553,8 +7511,8 @@
     <row r="60" spans="1:12" s="44" customFormat="1">
       <c r="A60" s="65"/>
       <c r="B60" s="74"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
       <c r="G60" s="67"/>
@@ -7562,14 +7520,14 @@
       <c r="I60" s="68"/>
       <c r="J60" s="69"/>
       <c r="K60" s="67"/>
-      <c r="L60" s="73"/>
+      <c r="L60" s="67"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
       <c r="A61" s="65"/>
       <c r="B61" s="74"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="67"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="67"/>
       <c r="G61" s="67"/>
       <c r="H61" s="66"/>
@@ -7580,7 +7538,7 @@
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="69"/>
       <c r="D62" s="66"/>
       <c r="E62" s="72"/>
@@ -7599,16 +7557,16 @@
       <c r="D63" s="66"/>
       <c r="E63" s="72"/>
       <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="66"/>
       <c r="I63" s="68"/>
       <c r="J63" s="69"/>
-      <c r="K63" s="67"/>
+      <c r="K63" s="73"/>
       <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="69"/>
       <c r="D64" s="66"/>
       <c r="E64" s="72"/>
@@ -7617,16 +7575,16 @@
       <c r="H64" s="66"/>
       <c r="I64" s="68"/>
       <c r="J64" s="69"/>
-      <c r="K64" s="73"/>
+      <c r="K64" s="67"/>
       <c r="L64" s="67"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="69"/>
       <c r="D65" s="66"/>
       <c r="E65" s="72"/>
-      <c r="F65" s="67"/>
+      <c r="F65" s="72"/>
       <c r="G65" s="72"/>
       <c r="H65" s="66"/>
       <c r="I65" s="68"/>
@@ -7637,8 +7595,8 @@
     <row r="66" spans="1:13" s="44" customFormat="1">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="66"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="72"/>
       <c r="F66" s="72"/>
       <c r="G66" s="72"/>
@@ -7651,52 +7609,52 @@
     <row r="67" spans="1:13" s="44" customFormat="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="70"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="69"/>
       <c r="D68" s="66"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="70"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="66"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="77"/>
       <c r="F69" s="67"/>
       <c r="G69" s="77"/>
       <c r="H69" s="66"/>
       <c r="I69" s="68"/>
       <c r="J69" s="69"/>
-      <c r="K69" s="77"/>
+      <c r="K69" s="78"/>
       <c r="L69" s="77"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="67"/>
+      <c r="F70" s="77"/>
       <c r="G70" s="77"/>
       <c r="H70" s="66"/>
       <c r="I70" s="68"/>
@@ -7705,8 +7663,8 @@
       <c r="L70" s="77"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="69"/>
       <c r="D71" s="66"/>
       <c r="E71" s="77"/>
@@ -7721,8 +7679,8 @@
     <row r="72" spans="1:13" s="44" customFormat="1">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="66"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="77"/>
       <c r="F72" s="77"/>
       <c r="G72" s="77"/>
@@ -7733,39 +7691,40 @@
       <c r="L72" s="77"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="77"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="37"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="66"/>
       <c r="D74" s="66"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="70"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="77"/>
       <c r="M74" s="37"/>
     </row>
-    <row r="75" spans="1:13" s="44" customFormat="1">
+    <row r="75" spans="1:13">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
       <c r="E75" s="77"/>
       <c r="F75" s="67"/>
       <c r="G75" s="77"/>
@@ -7774,38 +7733,38 @@
       <c r="J75" s="69"/>
       <c r="K75" s="78"/>
       <c r="L75" s="77"/>
-      <c r="M75" s="37"/>
+      <c r="M75" s="44"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="44"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="70"/>
+    </row>
+    <row r="77" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A77" s="65"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="70"/>
-    </row>
-    <row r="78" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E77" s="77"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="37"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="65"/>
       <c r="B78" s="74"/>
       <c r="C78" s="38"/>
@@ -7818,35 +7777,34 @@
       <c r="J78" s="69"/>
       <c r="K78" s="78"/>
       <c r="L78" s="77"/>
-      <c r="M78" s="37"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="65"/>
-      <c r="B79" s="74"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="77"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="70"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="70"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7855,43 +7813,44 @@
       <c r="D81" s="38"/>
       <c r="E81" s="67"/>
       <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
+      <c r="G81" s="72"/>
       <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="79"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="69"/>
       <c r="K81" s="67"/>
       <c r="L81" s="67"/>
+      <c r="M81" s="44"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="44"/>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="70"/>
+    </row>
+    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="70"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -7904,7 +7863,7 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
-      <c r="M84" s="37"/>
+      <c r="M84" s="44"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="38"/>
@@ -7919,13 +7878,12 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
-    </row>
-    <row r="86" spans="1:13">
+    </row>
+    <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -7934,8 +7892,9 @@
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M86" s="37"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="66"/>
@@ -7948,13 +7907,11 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
+      <c r="M87" s="44"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -7965,9 +7922,11 @@
       <c r="L88" s="38"/>
       <c r="M88" s="44"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -7976,11 +7935,11 @@
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
-      <c r="M89" s="44"/>
+      <c r="M89" s="37"/>
     </row>
     <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="38"/>
@@ -7993,11 +7952,9 @@
       <c r="L90" s="38"/>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="91" spans="1:13">
       <c r="A91" s="65"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="66"/>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -8006,11 +7963,8 @@
       <c r="J91" s="38"/>
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
-      <c r="M91" s="37"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="65"/>
-      <c r="B92" s="66"/>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -8021,18 +7975,18 @@
       <c r="L92" s="38"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="67"/>
     </row>
     <row r="94" spans="1:13">
       <c r="E94" s="72"/>
-      <c r="F94" s="67"/>
+      <c r="F94" s="72"/>
       <c r="G94" s="72"/>
       <c r="H94" s="66"/>
       <c r="I94" s="68"/>
@@ -8040,25 +7994,15 @@
       <c r="K94" s="67"/>
       <c r="L94" s="67"/>
     </row>
-    <row r="95" spans="1:13">
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-    </row>
+    <row r="98" ht="37.5" customHeight="1"/>
     <row r="99" ht="37.5" customHeight="1"/>
     <row r="100" ht="37.5" customHeight="1"/>
     <row r="101" ht="37.5" customHeight="1"/>
-    <row r="102" ht="37.5" customHeight="1"/>
-    <row r="104" ht="18" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="109" ht="30" customHeight="1"/>
-    <row r="113" ht="44.25" customHeight="1"/>
-    <row r="114" ht="45" customHeight="1"/>
+    <row r="103" ht="18" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="108" ht="30" customHeight="1"/>
+    <row r="112" ht="44.25" customHeight="1"/>
+    <row r="113" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8076,19 +8020,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I80 I49 I77 I74 I68 I83">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I79 I48 I76 I73 I67 I82">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80 J49 J77 J74 J68 J83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J79 J48 J76 J73 J67 J82">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H95 H29:H80 H82:H83 H8:H10 H13:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93:H94 H28:H79 H81:H82 H8:H10 H13:H26">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I94:I95 I29:I48 I50:I67 I78:I79 I75:I76 I69:I73 I82 I8:I10 I13:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I93:I94 I28:I47 I49:I66 I77:I78 I74:I75 I68:I72 I81 I8:I10 I13:I26">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J75:J76 J82 J78:J79 J50:J67 J29:J48 J94:J95 J8:J10 J13:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J74:J75 J81 J77:J78 J49:J66 J28:J47 J93:J94 J8:J10 J13:J26">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8102,15 +8046,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Edit profile_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -998,9 +998,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1084,6 +1081,9 @@
   </si>
   <si>
     <t>Word that user input is displayed and  characters must be hide</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3083,6 +3083,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3100,27 +3121,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6258,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6278,14 +6278,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6300,12 +6300,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6317,12 +6317,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6331,28 +6331,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="C6" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6375,10 +6375,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6394,12 +6394,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6408,13 +6408,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6422,8 +6422,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6431,8 +6431,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6440,8 +6440,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6449,8 +6449,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6458,8 +6458,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6467,12 +6467,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6480,6 +6474,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6495,7 +6495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6689,7 +6689,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6717,7 +6717,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6747,7 +6747,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6766,7 +6766,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6778,10 +6778,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
@@ -6794,7 +6794,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6806,10 +6806,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6822,7 +6822,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6834,10 +6834,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
@@ -6850,7 +6850,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6862,23 +6862,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6890,10 +6890,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -6905,7 +6905,7 @@
       <c r="D18" s="60"/>
       <c r="E18" s="61"/>
       <c r="F18" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -6924,7 +6924,7 @@
       <c r="E19" s="63"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6936,10 +6936,10 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
@@ -6956,10 +6956,10 @@
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
       <c r="K20" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
@@ -8054,7 +8054,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
